--- a/chapters/ch07-Households/datasets/End_use_by_demand_category.xlsx
+++ b/chapters/ch07-Households/datasets/End_use_by_demand_category.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch07-Households/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch07-Households/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DD3A5-7231-9F43-B41F-783355339353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6840DB82-9403-D042-9EAC-7B46E87A8B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27420" windowHeight="17500" xr2:uid="{050B59BC-9A69-4FFA-923E-3A98C87BB17B}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="185">
   <si>
     <t>Release date: May 2018</t>
   </si>
@@ -1638,6 +1638,9 @@
   <si>
     <t>Space cooling</t>
   </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
 </sst>
 </file>
 
@@ -2391,7 +2394,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2497,9 +2500,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
-        <f>'Electricity calcs'!K9</f>
-        <v>Refrigerators</v>
+      <c r="A5" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B5" s="2">
         <f>'Electricity calcs'!L9</f>
